--- a/导表工具/Excels/__beans__.xlsx
+++ b/导表工具/Excels/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>title_rows=3</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -34,7 +31,10 @@
     <t>tags</t>
   </si>
   <si>
-    <t>fields</t>
+    <t>*fields</t>
+  </si>
+  <si>
+    <t>##field</t>
   </si>
   <si>
     <t>name</t>
@@ -43,24 +43,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>is_multi_rows</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
@@ -73,22 +58,46 @@
     <t>类型</t>
   </si>
   <si>
-    <t>是否多行</t>
-  </si>
-  <si>
-    <t>索引字段</t>
-  </si>
-  <si>
     <t>分组</t>
   </si>
   <si>
-    <t>引用检查</t>
-  </si>
-  <si>
-    <t>路径检查</t>
-  </si>
-  <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Battle.Attribute</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>SKL</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>LUK</t>
   </si>
 </sst>
 </file>
@@ -97,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,43 +120,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,18 +142,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,8 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +217,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -222,40 +247,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,181 +285,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,32 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,15 +538,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,153 +546,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,10 +733,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,131 +1058,174 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="11" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
-      <c r="A3" s="2"/>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:14">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="6:7">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" t="s">
         <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
